--- a/CSE-5-A_timetable.xlsx
+++ b/CSE-5-A_timetable.xlsx
@@ -771,7 +771,7 @@
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="8" t="inlineStr">
         <is>
-          <t>Elective_1</t>
+          <t>Elective_1T</t>
         </is>
       </c>
       <c r="M4" s="2" t="n"/>
@@ -1295,7 +1295,7 @@
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="8" t="inlineStr">
         <is>
-          <t>Elective_1</t>
+          <t>Elective_1T</t>
         </is>
       </c>
       <c r="M4" s="2" t="n"/>
